--- a/Tp/files/MLAIM_cleaned.xlsx
+++ b/Tp/files/MLAIM_cleaned.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
